--- a/scrape-products/Surowce BM3.xlsx
+++ b/scrape-products/Surowce BM3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Documents/anet/scrape-products/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/GitHub/Anet/scrape-products/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AF9F10-237F-CD42-9498-92E03AB50A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA01166A-CA03-2145-96F8-AAA586A7553B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="780" windowWidth="17300" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17300" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="248">
   <si>
     <t>DM</t>
   </si>
@@ -388,9 +388,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>S-a</t>
-  </si>
-  <si>
     <t>S-o</t>
   </si>
   <si>
@@ -670,9 +667,6 @@
     <t>&lt;=C10</t>
   </si>
   <si>
-    <t>BX594</t>
-  </si>
-  <si>
     <t>BX595</t>
   </si>
   <si>
@@ -682,27 +676,9 @@
     <t>BX597</t>
   </si>
   <si>
-    <t>BX598</t>
-  </si>
-  <si>
-    <t>BX600</t>
-  </si>
-  <si>
     <t>BX601</t>
   </si>
   <si>
-    <t>BX602</t>
-  </si>
-  <si>
-    <t>BX604</t>
-  </si>
-  <si>
-    <t>BX605</t>
-  </si>
-  <si>
-    <t>BX606</t>
-  </si>
-  <si>
     <t>BX607</t>
   </si>
   <si>
@@ -727,9 +703,6 @@
     <t>BX614</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
     <t>FOMr2/FOMr</t>
   </si>
   <si>
@@ -739,27 +712,9 @@
     <t>DVBE</t>
   </si>
   <si>
-    <t>VEM2022</t>
-  </si>
-  <si>
-    <t>MErab</t>
-  </si>
-  <si>
     <t>DCPho</t>
   </si>
   <si>
-    <t>DPpo</t>
-  </si>
-  <si>
-    <t>NE2015</t>
-  </si>
-  <si>
-    <t>EW2015</t>
-  </si>
-  <si>
-    <t>C:18:2</t>
-  </si>
-  <si>
     <t>SumFA</t>
   </si>
   <si>
@@ -806,6 +761,9 @@
   </si>
   <si>
     <t>A145</t>
+  </si>
+  <si>
+    <t>S-i</t>
   </si>
 </sst>
 </file>
@@ -1169,20 +1127,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IF3"/>
+  <dimension ref="A1:HY3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FF1" workbookViewId="0">
-      <selection activeCell="FQ18" sqref="FQ18"/>
+    <sheetView tabSelected="1" topLeftCell="HJ1" workbookViewId="0">
+      <selection activeCell="HU15" sqref="HU15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:240" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
         <v>200</v>
-      </c>
-      <c r="B1" t="s">
-        <v>201</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1674,10 +1632,10 @@
         <v>172</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="FL1" s="1">
         <v>220</v>
@@ -1842,64 +1800,43 @@
         <v>277</v>
       </c>
       <c r="HN1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HO1" t="s">
         <v>216</v>
       </c>
-      <c r="HO1" t="s">
+      <c r="HP1" t="s">
         <v>217</v>
       </c>
-      <c r="HP1" t="s">
+      <c r="HQ1" t="s">
         <v>218</v>
       </c>
-      <c r="HQ1" t="s">
+      <c r="HR1" t="s">
         <v>219</v>
       </c>
-      <c r="HR1" t="s">
+      <c r="HS1" t="s">
         <v>220</v>
       </c>
-      <c r="HS1" t="s">
+      <c r="HT1" t="s">
         <v>221</v>
       </c>
-      <c r="HT1" t="s">
+      <c r="HU1" t="s">
         <v>222</v>
       </c>
-      <c r="HU1" t="s">
+      <c r="HV1" t="s">
         <v>223</v>
       </c>
-      <c r="HV1" t="s">
+      <c r="HW1" t="s">
         <v>224</v>
       </c>
-      <c r="HW1" t="s">
+      <c r="HX1" t="s">
         <v>225</v>
       </c>
-      <c r="HX1" t="s">
+      <c r="HY1" t="s">
         <v>226</v>
       </c>
-      <c r="HY1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HZ1" t="s">
-        <v>228</v>
-      </c>
-      <c r="IA1" t="s">
-        <v>229</v>
-      </c>
-      <c r="IB1" t="s">
-        <v>230</v>
-      </c>
-      <c r="IC1" t="s">
-        <v>231</v>
-      </c>
-      <c r="ID1" t="s">
-        <v>232</v>
-      </c>
-      <c r="IE1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IF1" t="s">
-        <v>234</v>
-      </c>
     </row>
-    <row r="2" spans="1:240" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:233" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -1907,13 +1844,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
@@ -1976,13 +1913,13 @@
         <v>22</v>
       </c>
       <c r="AB2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC2" t="s">
         <v>208</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>209</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>210</v>
       </c>
       <c r="AE2" t="s">
         <v>23</v>
@@ -2135,7 +2072,7 @@
         <v>72</v>
       </c>
       <c r="CC2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="CD2" t="s">
         <v>73</v>
@@ -2183,7 +2120,7 @@
         <v>87</v>
       </c>
       <c r="CS2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CT2" t="s">
         <v>88</v>
@@ -2222,13 +2159,13 @@
         <v>99</v>
       </c>
       <c r="DF2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="DG2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="DH2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="DI2" t="s">
         <v>100</v>
@@ -2297,109 +2234,109 @@
         <v>121</v>
       </c>
       <c r="EE2" t="s">
+        <v>247</v>
+      </c>
+      <c r="EF2" t="s">
         <v>122</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EG2" t="s">
+        <v>211</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>212</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>239</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>242</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>241</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>243</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>244</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EO2" t="s">
         <v>123</v>
       </c>
-      <c r="EG2" t="s">
-        <v>212</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>213</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>254</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>257</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>256</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>258</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>259</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>255</v>
-      </c>
-      <c r="EO2" t="s">
+      <c r="EP2" t="s">
         <v>124</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="EQ2" t="s">
         <v>125</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="ER2" t="s">
         <v>126</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="ES2" t="s">
         <v>127</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="ET2" t="s">
         <v>128</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="EU2" t="s">
         <v>129</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="EV2" t="s">
         <v>130</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="EW2" t="s">
         <v>131</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="EX2" t="s">
         <v>132</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="EY2" t="s">
         <v>133</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="EZ2" t="s">
         <v>134</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="FA2" t="s">
         <v>135</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="FB2" t="s">
         <v>136</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="FC2" t="s">
         <v>137</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="FD2" t="s">
         <v>138</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="FE2" t="s">
         <v>139</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FF2" t="s">
         <v>140</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="FG2" t="s">
         <v>141</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="FH2" t="s">
         <v>142</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="FI2" t="s">
         <v>143</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="FJ2" t="s">
         <v>144</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="FK2" t="s">
         <v>145</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>146</v>
       </c>
       <c r="FL2" t="s">
         <v>121</v>
       </c>
       <c r="FM2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="FN2">
         <v>11</v>
@@ -2414,921 +2351,879 @@
         <v>200</v>
       </c>
       <c r="FR2" t="s">
+        <v>147</v>
+      </c>
+      <c r="FS2" t="s">
         <v>148</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="FT2" t="s">
         <v>149</v>
       </c>
-      <c r="FT2" t="s">
+      <c r="FU2" t="s">
         <v>150</v>
       </c>
-      <c r="FU2" t="s">
+      <c r="FV2" t="s">
+        <v>148</v>
+      </c>
+      <c r="FW2" t="s">
         <v>151</v>
       </c>
-      <c r="FV2" t="s">
-        <v>149</v>
-      </c>
-      <c r="FW2" t="s">
+      <c r="FX2" t="s">
         <v>152</v>
       </c>
-      <c r="FX2" t="s">
+      <c r="FY2" t="s">
         <v>153</v>
       </c>
-      <c r="FY2" t="s">
+      <c r="FZ2" t="s">
         <v>154</v>
       </c>
-      <c r="FZ2" t="s">
+      <c r="GA2" t="s">
         <v>155</v>
       </c>
-      <c r="GA2" t="s">
+      <c r="GB2" t="s">
         <v>156</v>
       </c>
-      <c r="GB2" t="s">
+      <c r="GC2" t="s">
         <v>157</v>
       </c>
-      <c r="GC2" t="s">
+      <c r="GD2" t="s">
         <v>158</v>
       </c>
-      <c r="GD2" t="s">
+      <c r="GE2" t="s">
         <v>159</v>
       </c>
-      <c r="GE2" t="s">
+      <c r="GF2" t="s">
         <v>160</v>
       </c>
-      <c r="GF2" t="s">
+      <c r="GG2" t="s">
         <v>161</v>
       </c>
-      <c r="GG2" t="s">
+      <c r="GH2" t="s">
         <v>162</v>
       </c>
-      <c r="GH2" t="s">
+      <c r="GI2" t="s">
         <v>163</v>
       </c>
-      <c r="GI2" t="s">
+      <c r="GJ2" t="s">
         <v>164</v>
       </c>
-      <c r="GJ2" t="s">
+      <c r="GK2" t="s">
         <v>165</v>
       </c>
-      <c r="GK2" t="s">
+      <c r="GL2" t="s">
+        <v>205</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>203</v>
+      </c>
+      <c r="GN2" t="s">
         <v>166</v>
       </c>
-      <c r="GL2" t="s">
-        <v>206</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>204</v>
-      </c>
-      <c r="GN2" t="s">
+      <c r="GO2" t="s">
         <v>167</v>
       </c>
-      <c r="GO2" t="s">
+      <c r="GP2" t="s">
         <v>168</v>
       </c>
-      <c r="GP2" t="s">
+      <c r="GQ2" t="s">
         <v>169</v>
       </c>
-      <c r="GQ2" t="s">
+      <c r="GR2" t="s">
         <v>170</v>
       </c>
-      <c r="GR2" t="s">
+      <c r="GS2" t="s">
         <v>171</v>
       </c>
-      <c r="GS2" t="s">
+      <c r="GT2" t="s">
         <v>172</v>
       </c>
-      <c r="GT2" t="s">
+      <c r="GU2" t="s">
         <v>173</v>
       </c>
-      <c r="GU2" t="s">
+      <c r="GV2" t="s">
         <v>174</v>
       </c>
-      <c r="GV2" t="s">
+      <c r="GW2" t="s">
         <v>175</v>
       </c>
-      <c r="GW2" t="s">
+      <c r="GX2" t="s">
         <v>176</v>
       </c>
-      <c r="GX2" t="s">
+      <c r="GY2" t="s">
         <v>177</v>
       </c>
-      <c r="GY2" t="s">
+      <c r="GZ2" t="s">
         <v>178</v>
       </c>
-      <c r="GZ2" t="s">
+      <c r="HA2" t="s">
         <v>179</v>
       </c>
-      <c r="HA2" t="s">
+      <c r="HB2" t="s">
         <v>180</v>
       </c>
-      <c r="HB2" t="s">
+      <c r="HC2" t="s">
         <v>181</v>
       </c>
-      <c r="HC2" t="s">
+      <c r="HD2" t="s">
         <v>182</v>
       </c>
-      <c r="HD2" t="s">
+      <c r="HE2" t="s">
         <v>183</v>
       </c>
-      <c r="HE2" t="s">
+      <c r="HF2" t="s">
         <v>184</v>
       </c>
-      <c r="HF2" t="s">
+      <c r="HG2" t="s">
         <v>185</v>
       </c>
-      <c r="HG2" t="s">
+      <c r="HH2" t="s">
         <v>186</v>
       </c>
-      <c r="HH2" t="s">
+      <c r="HI2" t="s">
         <v>187</v>
       </c>
-      <c r="HI2" t="s">
+      <c r="HJ2" t="s">
         <v>188</v>
       </c>
-      <c r="HJ2" t="s">
+      <c r="HK2" t="s">
         <v>189</v>
       </c>
-      <c r="HK2" t="s">
+      <c r="HL2" t="s">
         <v>190</v>
       </c>
-      <c r="HL2" t="s">
+      <c r="HM2" t="s">
         <v>191</v>
       </c>
-      <c r="HM2" t="s">
-        <v>192</v>
-      </c>
       <c r="HN2" t="s">
+        <v>227</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>228</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>229</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>230</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>231</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>232</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>233</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>234</v>
+      </c>
+      <c r="HV2" t="s">
         <v>235</v>
       </c>
-      <c r="HO2" t="s">
+      <c r="HW2" t="s">
         <v>236</v>
       </c>
-      <c r="HP2" t="s">
+      <c r="HX2" t="s">
         <v>237</v>
       </c>
-      <c r="HQ2" t="s">
+      <c r="HY2" t="s">
         <v>238</v>
       </c>
-      <c r="HR2" t="s">
-        <v>239</v>
-      </c>
-      <c r="HS2" t="s">
-        <v>240</v>
-      </c>
-      <c r="HT2" t="s">
-        <v>241</v>
-      </c>
-      <c r="HU2" t="s">
-        <v>242</v>
-      </c>
-      <c r="HV2" t="s">
-        <v>243</v>
-      </c>
-      <c r="HW2" t="s">
-        <v>244</v>
-      </c>
-      <c r="HX2" t="s">
-        <v>245</v>
-      </c>
-      <c r="HY2" t="s">
-        <v>246</v>
-      </c>
-      <c r="HZ2" t="s">
-        <v>247</v>
-      </c>
-      <c r="IA2" t="s">
-        <v>248</v>
-      </c>
-      <c r="IB2" t="s">
-        <v>249</v>
-      </c>
-      <c r="IC2" t="s">
-        <v>250</v>
-      </c>
-      <c r="ID2" t="s">
-        <v>251</v>
-      </c>
-      <c r="IE2" t="s">
-        <v>252</v>
-      </c>
-      <c r="IF2" t="s">
-        <v>253</v>
-      </c>
     </row>
-    <row r="3" spans="1:240" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:233" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L3" t="s">
+        <v>192</v>
+      </c>
+      <c r="M3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N3" t="s">
+        <v>192</v>
+      </c>
+      <c r="O3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>192</v>
+      </c>
+      <c r="R3" t="s">
+        <v>192</v>
+      </c>
+      <c r="S3" t="s">
         <v>193</v>
       </c>
-      <c r="D3" t="s">
+      <c r="T3" t="s">
         <v>193</v>
       </c>
-      <c r="E3" t="s">
+      <c r="U3" t="s">
         <v>193</v>
       </c>
-      <c r="F3" t="s">
+      <c r="V3" t="s">
         <v>193</v>
       </c>
-      <c r="G3" t="s">
+      <c r="W3" t="s">
         <v>193</v>
       </c>
-      <c r="H3" t="s">
+      <c r="X3" t="s">
         <v>193</v>
       </c>
-      <c r="I3" t="s">
+      <c r="Y3" t="s">
         <v>193</v>
       </c>
-      <c r="J3" t="s">
-        <v>193</v>
-      </c>
-      <c r="K3" t="s">
-        <v>193</v>
-      </c>
-      <c r="L3" t="s">
-        <v>193</v>
-      </c>
-      <c r="M3" t="s">
-        <v>193</v>
-      </c>
-      <c r="N3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O3" t="s">
-        <v>193</v>
-      </c>
-      <c r="P3" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>193</v>
-      </c>
-      <c r="R3" t="s">
-        <v>193</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="Z3" t="s">
         <v>194</v>
       </c>
-      <c r="T3" t="s">
+      <c r="AA3" t="s">
         <v>194</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AB3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE3" t="s">
         <v>194</v>
       </c>
-      <c r="V3" t="s">
+      <c r="AF3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>195</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>196</v>
+      </c>
+      <c r="CT3" t="s">
         <v>194</v>
       </c>
-      <c r="W3" t="s">
+      <c r="CU3" t="s">
+        <v>195</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DI3" t="s">
         <v>194</v>
       </c>
-      <c r="X3" t="s">
+      <c r="DJ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DX3" t="s">
         <v>194</v>
       </c>
-      <c r="Y3" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF3" t="s">
+      <c r="DY3" t="s">
+        <v>192</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>192</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>192</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>192</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>192</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>192</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>192</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>192</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>192</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EO3" t="s">
         <v>196</v>
       </c>
-      <c r="AG3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH3" t="s">
+      <c r="EP3" t="s">
         <v>196</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="EQ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>192</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>192</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>192</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>192</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>192</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>192</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>192</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>192</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>192</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>192</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>192</v>
+      </c>
+      <c r="FD3" t="s">
+        <v>192</v>
+      </c>
+      <c r="FE3" t="s">
+        <v>192</v>
+      </c>
+      <c r="FF3" t="s">
+        <v>192</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>192</v>
+      </c>
+      <c r="FH3" t="s">
+        <v>192</v>
+      </c>
+      <c r="FI3" t="s">
+        <v>192</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>192</v>
+      </c>
+      <c r="FL3" t="s">
+        <v>198</v>
+      </c>
+      <c r="FM3" t="s">
+        <v>198</v>
+      </c>
+      <c r="FN3" t="s">
+        <v>198</v>
+      </c>
+      <c r="FO3" t="s">
+        <v>198</v>
+      </c>
+      <c r="FP3" t="s">
+        <v>198</v>
+      </c>
+      <c r="FQ3" t="s">
+        <v>198</v>
+      </c>
+      <c r="FR3" t="s">
+        <v>198</v>
+      </c>
+      <c r="FS3" t="s">
+        <v>198</v>
+      </c>
+      <c r="FT3" t="s">
+        <v>198</v>
+      </c>
+      <c r="FU3" t="s">
+        <v>198</v>
+      </c>
+      <c r="FV3" t="s">
+        <v>198</v>
+      </c>
+      <c r="FW3" t="s">
+        <v>198</v>
+      </c>
+      <c r="FX3" t="s">
+        <v>192</v>
+      </c>
+      <c r="FY3" t="s">
+        <v>198</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>198</v>
+      </c>
+      <c r="GA3" t="s">
+        <v>198</v>
+      </c>
+      <c r="GB3" t="s">
+        <v>198</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>198</v>
+      </c>
+      <c r="GD3" t="s">
+        <v>192</v>
+      </c>
+      <c r="GE3" t="s">
+        <v>192</v>
+      </c>
+      <c r="GF3" t="s">
+        <v>198</v>
+      </c>
+      <c r="GG3" t="s">
+        <v>192</v>
+      </c>
+      <c r="GH3" t="s">
+        <v>192</v>
+      </c>
+      <c r="GI3" t="s">
+        <v>198</v>
+      </c>
+      <c r="GJ3" t="s">
+        <v>198</v>
+      </c>
+      <c r="GK3" t="s">
+        <v>198</v>
+      </c>
+      <c r="GL3" t="s">
+        <v>192</v>
+      </c>
+      <c r="GM3" t="s">
+        <v>192</v>
+      </c>
+      <c r="GN3" t="s">
+        <v>192</v>
+      </c>
+      <c r="GO3" t="s">
+        <v>192</v>
+      </c>
+      <c r="GP3" t="s">
+        <v>192</v>
+      </c>
+      <c r="GQ3" t="s">
+        <v>198</v>
+      </c>
+      <c r="GR3" t="s">
+        <v>198</v>
+      </c>
+      <c r="GS3" t="s">
+        <v>198</v>
+      </c>
+      <c r="GT3" t="s">
+        <v>198</v>
+      </c>
+      <c r="GU3" t="s">
+        <v>192</v>
+      </c>
+      <c r="GV3" t="s">
+        <v>192</v>
+      </c>
+      <c r="GW3" t="s">
+        <v>192</v>
+      </c>
+      <c r="GX3" t="s">
+        <v>192</v>
+      </c>
+      <c r="GY3" t="s">
+        <v>192</v>
+      </c>
+      <c r="GZ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HA3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HB3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HC3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HD3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HE3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HF3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HG3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HH3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HI3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HJ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HK3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HL3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HM3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HN3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HO3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HP3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HQ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HR3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HS3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HT3" t="s">
         <v>196</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="HU3" t="s">
         <v>196</v>
       </c>
-      <c r="AK3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>196</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>197</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>195</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>196</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>195</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>195</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>193</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EF3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EI3" t="s">
+      <c r="HV3" t="s">
         <v>198</v>
       </c>
-      <c r="EJ3" t="s">
+      <c r="HW3" t="s">
         <v>198</v>
       </c>
-      <c r="EK3" t="s">
+      <c r="HX3" t="s">
+        <v>192</v>
+      </c>
+      <c r="HY3" t="s">
         <v>198</v>
-      </c>
-      <c r="EL3" t="s">
-        <v>198</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>198</v>
-      </c>
-      <c r="EN3" t="s">
-        <v>198</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>197</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>197</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>193</v>
-      </c>
-      <c r="ER3" t="s">
-        <v>193</v>
-      </c>
-      <c r="ES3" t="s">
-        <v>193</v>
-      </c>
-      <c r="ET3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EU3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EV3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EW3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EX3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EY3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EZ3" t="s">
-        <v>193</v>
-      </c>
-      <c r="FA3" t="s">
-        <v>193</v>
-      </c>
-      <c r="FB3" t="s">
-        <v>193</v>
-      </c>
-      <c r="FC3" t="s">
-        <v>193</v>
-      </c>
-      <c r="FD3" t="s">
-        <v>193</v>
-      </c>
-      <c r="FE3" t="s">
-        <v>193</v>
-      </c>
-      <c r="FF3" t="s">
-        <v>193</v>
-      </c>
-      <c r="FG3" t="s">
-        <v>193</v>
-      </c>
-      <c r="FH3" t="s">
-        <v>193</v>
-      </c>
-      <c r="FI3" t="s">
-        <v>193</v>
-      </c>
-      <c r="FJ3" t="s">
-        <v>193</v>
-      </c>
-      <c r="FK3" t="s">
-        <v>193</v>
-      </c>
-      <c r="FL3" t="s">
-        <v>199</v>
-      </c>
-      <c r="FM3" t="s">
-        <v>199</v>
-      </c>
-      <c r="FN3" t="s">
-        <v>199</v>
-      </c>
-      <c r="FO3" t="s">
-        <v>199</v>
-      </c>
-      <c r="FP3" t="s">
-        <v>199</v>
-      </c>
-      <c r="FQ3" t="s">
-        <v>199</v>
-      </c>
-      <c r="FR3" t="s">
-        <v>199</v>
-      </c>
-      <c r="FS3" t="s">
-        <v>199</v>
-      </c>
-      <c r="FT3" t="s">
-        <v>199</v>
-      </c>
-      <c r="FU3" t="s">
-        <v>199</v>
-      </c>
-      <c r="FV3" t="s">
-        <v>199</v>
-      </c>
-      <c r="FW3" t="s">
-        <v>199</v>
-      </c>
-      <c r="FX3" t="s">
-        <v>199</v>
-      </c>
-      <c r="FY3" t="s">
-        <v>199</v>
-      </c>
-      <c r="FZ3" t="s">
-        <v>199</v>
-      </c>
-      <c r="GA3" t="s">
-        <v>199</v>
-      </c>
-      <c r="GB3" t="s">
-        <v>199</v>
-      </c>
-      <c r="GC3" t="s">
-        <v>199</v>
-      </c>
-      <c r="GD3" t="s">
-        <v>193</v>
-      </c>
-      <c r="GE3" t="s">
-        <v>193</v>
-      </c>
-      <c r="GF3" t="s">
-        <v>199</v>
-      </c>
-      <c r="GG3" t="s">
-        <v>193</v>
-      </c>
-      <c r="GH3" t="s">
-        <v>193</v>
-      </c>
-      <c r="GI3" t="s">
-        <v>199</v>
-      </c>
-      <c r="GJ3" t="s">
-        <v>199</v>
-      </c>
-      <c r="GK3" t="s">
-        <v>199</v>
-      </c>
-      <c r="GL3" t="s">
-        <v>193</v>
-      </c>
-      <c r="GM3" t="s">
-        <v>199</v>
-      </c>
-      <c r="GN3" t="s">
-        <v>193</v>
-      </c>
-      <c r="GO3" t="s">
-        <v>193</v>
-      </c>
-      <c r="GP3" t="s">
-        <v>193</v>
-      </c>
-      <c r="GQ3" t="s">
-        <v>199</v>
-      </c>
-      <c r="GR3" t="s">
-        <v>199</v>
-      </c>
-      <c r="GS3" t="s">
-        <v>199</v>
-      </c>
-      <c r="GT3" t="s">
-        <v>199</v>
-      </c>
-      <c r="GU3" t="s">
-        <v>193</v>
-      </c>
-      <c r="GV3" t="s">
-        <v>193</v>
-      </c>
-      <c r="GW3" t="s">
-        <v>193</v>
-      </c>
-      <c r="GX3" t="s">
-        <v>193</v>
-      </c>
-      <c r="GY3" t="s">
-        <v>193</v>
-      </c>
-      <c r="GZ3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HA3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HB3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HC3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HD3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HE3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HF3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HG3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HH3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HI3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HJ3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HK3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HL3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HM3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HN3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HO3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HP3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HQ3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HR3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HS3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HT3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HU3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HV3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HW3" t="s">
-        <v>199</v>
-      </c>
-      <c r="HX3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HY3" t="s">
-        <v>193</v>
-      </c>
-      <c r="HZ3" t="s">
-        <v>193</v>
-      </c>
-      <c r="IA3" t="s">
-        <v>197</v>
-      </c>
-      <c r="IB3" t="s">
-        <v>197</v>
-      </c>
-      <c r="IC3" t="s">
-        <v>199</v>
-      </c>
-      <c r="ID3" t="s">
-        <v>199</v>
-      </c>
-      <c r="IE3" t="s">
-        <v>193</v>
-      </c>
-      <c r="IF3" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
